--- a/Code/Results/Cases/Case_3_157/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_157/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.08529588336891</v>
+        <v>9.573880156280049</v>
       </c>
       <c r="C2">
-        <v>7.581492089833286</v>
+        <v>5.602865536938483</v>
       </c>
       <c r="D2">
-        <v>6.518353820268804</v>
+        <v>9.149089020520927</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.92090644329016</v>
+        <v>38.7198539006798</v>
       </c>
       <c r="G2">
-        <v>35.25749310436462</v>
+        <v>43.40943992380495</v>
       </c>
       <c r="H2">
-        <v>11.93612450355776</v>
+        <v>17.9367289136751</v>
       </c>
       <c r="I2">
-        <v>18.42060811939475</v>
+        <v>26.38136426604877</v>
       </c>
       <c r="J2">
-        <v>7.071310821106966</v>
+        <v>11.39450717807848</v>
       </c>
       <c r="K2">
-        <v>11.14197017604739</v>
+        <v>10.21435858003412</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.08580308766784</v>
+        <v>16.37561203550864</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.30032979002108</v>
+        <v>9.35209492403067</v>
       </c>
       <c r="C3">
-        <v>7.070638990112124</v>
+        <v>5.447729625047077</v>
       </c>
       <c r="D3">
-        <v>6.241423396150473</v>
+        <v>9.1205218787664</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.45932419181874</v>
+        <v>38.73683118239558</v>
       </c>
       <c r="G3">
-        <v>34.63594753278277</v>
+        <v>43.40280858259702</v>
       </c>
       <c r="H3">
-        <v>11.93544122057114</v>
+        <v>17.97652631681673</v>
       </c>
       <c r="I3">
-        <v>18.44242084220068</v>
+        <v>26.44666459872368</v>
       </c>
       <c r="J3">
-        <v>7.02162261711038</v>
+        <v>11.411592476549</v>
       </c>
       <c r="K3">
-        <v>10.46572294993424</v>
+        <v>10.07733013588103</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>11.57424479734043</v>
+        <v>16.32025643064994</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.79118824654272</v>
+        <v>9.21539884434087</v>
       </c>
       <c r="C4">
-        <v>6.739571994687306</v>
+        <v>5.35160740039935</v>
       </c>
       <c r="D4">
-        <v>6.06799891021539</v>
+        <v>9.104505924349846</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28.19518363879081</v>
+        <v>38.75570600723574</v>
       </c>
       <c r="G4">
-        <v>34.28177964539024</v>
+        <v>43.40997534539664</v>
       </c>
       <c r="H4">
-        <v>11.9424837892643</v>
+        <v>18.00379710047492</v>
       </c>
       <c r="I4">
-        <v>18.46879811491818</v>
+        <v>26.49143600233822</v>
       </c>
       <c r="J4">
-        <v>6.994613405888645</v>
+        <v>11.42366484970966</v>
       </c>
       <c r="K4">
-        <v>10.02859528117859</v>
+        <v>9.994460492699623</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.25471848101762</v>
+        <v>16.28923429338353</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.57685045236426</v>
+        <v>9.159650751304003</v>
       </c>
       <c r="C5">
-        <v>6.600250424321715</v>
+        <v>5.312283677621309</v>
       </c>
       <c r="D5">
-        <v>5.996575264638351</v>
+        <v>9.098367411960114</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>28.09235756539415</v>
+        <v>38.76552101824889</v>
       </c>
       <c r="G5">
-        <v>34.14429358339559</v>
+        <v>43.41571916803468</v>
       </c>
       <c r="H5">
-        <v>11.94716338656744</v>
+        <v>18.01562234630585</v>
       </c>
       <c r="I5">
-        <v>18.48268112202359</v>
+        <v>26.51085462328827</v>
       </c>
       <c r="J5">
-        <v>6.984471348541494</v>
+        <v>11.42898228282968</v>
       </c>
       <c r="K5">
-        <v>9.844964378272412</v>
+        <v>9.961050054186343</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.12332851944175</v>
+        <v>16.27734792884798</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.54084493923686</v>
+        <v>9.150393809554519</v>
       </c>
       <c r="C6">
-        <v>6.57684895432713</v>
+        <v>5.305746723805426</v>
       </c>
       <c r="D6">
-        <v>5.984673196159983</v>
+        <v>9.097371691102895</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>28.07557286766649</v>
+        <v>38.76727897251204</v>
       </c>
       <c r="G6">
-        <v>34.12187491312792</v>
+        <v>43.41684333049674</v>
       </c>
       <c r="H6">
-        <v>11.94804779780735</v>
+        <v>18.01762891156089</v>
       </c>
       <c r="I6">
-        <v>18.48517189369661</v>
+        <v>26.51414990868195</v>
       </c>
       <c r="J6">
-        <v>6.982839003067075</v>
+        <v>11.42988926801095</v>
       </c>
       <c r="K6">
-        <v>9.814141134807658</v>
+        <v>9.955525188924922</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.10144586542356</v>
+        <v>16.27542009337536</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.78832541248265</v>
+        <v>9.214647064194988</v>
       </c>
       <c r="C7">
-        <v>6.737710950101055</v>
+        <v>5.351077598402024</v>
       </c>
       <c r="D7">
-        <v>6.067038568020151</v>
+        <v>9.104421560674067</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>28.19377745442025</v>
+        <v>38.75582978141654</v>
       </c>
       <c r="G7">
-        <v>34.27989786710322</v>
+        <v>43.41004138216721</v>
       </c>
       <c r="H7">
-        <v>11.94253966004119</v>
+        <v>18.00395369728646</v>
       </c>
       <c r="I7">
-        <v>18.46897282748725</v>
+        <v>26.4916931384095</v>
       </c>
       <c r="J7">
-        <v>6.994473147801414</v>
+        <v>11.42373495158363</v>
       </c>
       <c r="K7">
-        <v>10.02614100692792</v>
+        <v>9.994008397774449</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.25295102871802</v>
+        <v>16.28907091916386</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.82026056280977</v>
+        <v>9.497567709837671</v>
       </c>
       <c r="C8">
-        <v>7.408940666133626</v>
+        <v>5.549592891483698</v>
       </c>
       <c r="D8">
-        <v>6.423627571707137</v>
+        <v>9.138925671380123</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.75773671083265</v>
+        <v>38.72395302390976</v>
       </c>
       <c r="G8">
-        <v>35.03745085837009</v>
+        <v>43.4048198420973</v>
       </c>
       <c r="H8">
-        <v>11.93429973141025</v>
+        <v>17.94986223954174</v>
       </c>
       <c r="I8">
-        <v>18.42535476663835</v>
+        <v>26.4029079347635</v>
       </c>
       <c r="J8">
-        <v>7.053442884739344</v>
+        <v>11.40006990292106</v>
       </c>
       <c r="K8">
-        <v>10.9133503708338</v>
+        <v>10.16687317683588</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11.91064765508172</v>
+        <v>16.35591565677894</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.62982643234911</v>
+        <v>10.04459017648775</v>
       </c>
       <c r="C9">
-        <v>8.588781670215912</v>
+        <v>5.929311161367052</v>
       </c>
       <c r="D9">
-        <v>7.092265282711596</v>
+        <v>9.218457077644461</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.01753629498146</v>
+        <v>38.72853057930801</v>
       </c>
       <c r="G9">
-        <v>36.74295857833692</v>
+        <v>43.48379249461903</v>
       </c>
       <c r="H9">
-        <v>11.98038458038018</v>
+        <v>17.86631407843202</v>
       </c>
       <c r="I9">
-        <v>18.44882674384327</v>
+        <v>26.265998843166</v>
       </c>
       <c r="J9">
-        <v>7.197512010223591</v>
+        <v>11.36621155832952</v>
       </c>
       <c r="K9">
-        <v>12.47944767064256</v>
+        <v>10.51408302654227</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.15042718020575</v>
+        <v>16.51008527837675</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.83131422874123</v>
+        <v>10.43710828600512</v>
       </c>
       <c r="C10">
-        <v>9.374868716866642</v>
+        <v>6.199144613771653</v>
       </c>
       <c r="D10">
-        <v>7.560703230963687</v>
+        <v>9.283799439800044</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>31.03775555305689</v>
+        <v>38.77278485172452</v>
       </c>
       <c r="G10">
-        <v>38.13199995678713</v>
+        <v>43.59613793942766</v>
       </c>
       <c r="H10">
-        <v>12.056424338401</v>
+        <v>17.81870284171613</v>
       </c>
       <c r="I10">
-        <v>18.54090170742163</v>
+        <v>26.18820837631289</v>
       </c>
       <c r="J10">
-        <v>7.321564789353364</v>
+        <v>11.34898035189276</v>
       </c>
       <c r="K10">
-        <v>13.52507787834266</v>
+        <v>10.77174570847452</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.02325710349692</v>
+        <v>16.6367785521331</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.35074128881815</v>
+        <v>10.61274683983396</v>
       </c>
       <c r="C11">
-        <v>9.715524748437325</v>
+        <v>6.319296562676098</v>
       </c>
       <c r="D11">
-        <v>7.768215830495651</v>
+        <v>9.314949859705253</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>31.52252699125714</v>
+        <v>38.80177314143726</v>
       </c>
       <c r="G11">
-        <v>38.79369488708181</v>
+        <v>43.65898762745465</v>
       </c>
       <c r="H11">
-        <v>12.10110878278452</v>
+        <v>17.80004103216369</v>
       </c>
       <c r="I11">
-        <v>18.60088634332298</v>
+        <v>26.157792959669</v>
       </c>
       <c r="J11">
-        <v>7.382132520821595</v>
+        <v>11.34279928045811</v>
       </c>
       <c r="K11">
-        <v>13.97833791246642</v>
+        <v>10.88900971501156</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.48685220156154</v>
+        <v>16.6971768052423</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.54358941217406</v>
+        <v>10.6787690346125</v>
       </c>
       <c r="C12">
-        <v>9.842137123016565</v>
+        <v>6.364376035256083</v>
       </c>
       <c r="D12">
-        <v>7.845953424017465</v>
+        <v>9.326943825729646</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>31.70907517416831</v>
+        <v>38.81401989369622</v>
       </c>
       <c r="G12">
-        <v>39.04856492036365</v>
+        <v>43.68446759477232</v>
       </c>
       <c r="H12">
-        <v>12.11955937894428</v>
+        <v>17.79340572009519</v>
       </c>
       <c r="I12">
-        <v>18.62635887629793</v>
+        <v>26.14699209515747</v>
       </c>
       <c r="J12">
-        <v>7.405676984738335</v>
+        <v>11.34069673499098</v>
       </c>
       <c r="K12">
-        <v>14.14679312941392</v>
+        <v>10.93338042058788</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.67291394034804</v>
+        <v>16.72043170937325</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.50222632837925</v>
+        <v>10.66457272749437</v>
       </c>
       <c r="C13">
-        <v>9.814974213329064</v>
+        <v>6.354686708636619</v>
       </c>
       <c r="D13">
-        <v>7.829249269005767</v>
+        <v>9.324352020743934</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>31.66876622506719</v>
+        <v>38.81132595135239</v>
       </c>
       <c r="G13">
-        <v>38.99348254487315</v>
+        <v>43.67890546017578</v>
       </c>
       <c r="H13">
-        <v>12.11551642388373</v>
+        <v>17.79481555331845</v>
       </c>
       <c r="I13">
-        <v>18.62074776614604</v>
+        <v>26.14928634705794</v>
       </c>
       <c r="J13">
-        <v>7.400578959406127</v>
+        <v>11.34113897118921</v>
       </c>
       <c r="K13">
-        <v>14.1106542590317</v>
+        <v>10.92382659330377</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.63300032481974</v>
+        <v>16.71540652997497</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.36668380461575</v>
+        <v>10.61818868609836</v>
       </c>
       <c r="C14">
-        <v>9.725988764136082</v>
+        <v>6.323013933534656</v>
       </c>
       <c r="D14">
-        <v>7.774628438419559</v>
+        <v>9.315932684144999</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>31.53781474538643</v>
+        <v>38.80275527350195</v>
       </c>
       <c r="G14">
-        <v>38.81457690881974</v>
+        <v>43.66105026303111</v>
       </c>
       <c r="H14">
-        <v>12.10259561644616</v>
+        <v>17.79948648989383</v>
       </c>
       <c r="I14">
-        <v>18.60292581898432</v>
+        <v>26.15688999035032</v>
       </c>
       <c r="J14">
-        <v>7.384057255274882</v>
+        <v>11.34262153270404</v>
       </c>
       <c r="K14">
-        <v>13.99226041227454</v>
+        <v>10.8926610506983</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.50223095565743</v>
+        <v>16.69908239965512</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.28316071138706</v>
+        <v>10.58971158372029</v>
       </c>
       <c r="C15">
-        <v>9.671173305446427</v>
+        <v>6.303557522747758</v>
       </c>
       <c r="D15">
-        <v>7.741060801375664</v>
+        <v>9.310801165742955</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>31.45799090473465</v>
+        <v>38.79767067397648</v>
       </c>
       <c r="G15">
-        <v>38.70555260305487</v>
+        <v>43.65033195692097</v>
       </c>
       <c r="H15">
-        <v>12.09488278946224</v>
+        <v>17.80240378466466</v>
       </c>
       <c r="I15">
-        <v>18.59237313613162</v>
+        <v>26.16164084154904</v>
       </c>
       <c r="J15">
-        <v>7.374016939199548</v>
+        <v>11.34356064260191</v>
       </c>
       <c r="K15">
-        <v>13.91932725181028</v>
+        <v>10.87356551644572</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.42166685937591</v>
+        <v>16.68913289719018</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.7968269627204</v>
+        <v>10.42556517233286</v>
       </c>
       <c r="C16">
-        <v>9.352269315772366</v>
+        <v>6.191236115280144</v>
       </c>
       <c r="D16">
-        <v>7.547025805340163</v>
+        <v>9.281791781523841</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>31.00649071804419</v>
+        <v>38.77106829712752</v>
       </c>
       <c r="G16">
-        <v>38.08935757500865</v>
+        <v>43.59226618852127</v>
       </c>
       <c r="H16">
-        <v>12.05371385601144</v>
+        <v>17.81998278869134</v>
       </c>
       <c r="I16">
-        <v>18.53735896266334</v>
+        <v>26.19029630279954</v>
       </c>
       <c r="J16">
-        <v>7.31769096152215</v>
+        <v>11.34941763204315</v>
       </c>
       <c r="K16">
-        <v>13.4950084803259</v>
+        <v>10.76407965095295</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>13.99772712481042</v>
+        <v>16.63288582080639</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.49156419707427</v>
+        <v>10.32406851748412</v>
       </c>
       <c r="C17">
-        <v>9.152327532113327</v>
+        <v>6.121631378945621</v>
       </c>
       <c r="D17">
-        <v>7.426530142424223</v>
+        <v>9.264355727813308</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.73480507120453</v>
+        <v>38.75701449333936</v>
       </c>
       <c r="G17">
-        <v>37.71898575272785</v>
+        <v>43.55964704864836</v>
       </c>
       <c r="H17">
-        <v>12.03109835530315</v>
+        <v>17.83153491884167</v>
       </c>
       <c r="I17">
-        <v>18.50835464628813</v>
+        <v>26.20915026950222</v>
       </c>
       <c r="J17">
-        <v>7.284205957268457</v>
+        <v>11.35343506613738</v>
       </c>
       <c r="K17">
-        <v>13.22898902399975</v>
+        <v>10.69689662418419</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.77292735316758</v>
+        <v>16.5990782999351</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.3134274492286</v>
+        <v>10.26541926504374</v>
       </c>
       <c r="C18">
-        <v>9.035728808136499</v>
+        <v>6.081354648664897</v>
       </c>
       <c r="D18">
-        <v>7.35670055939895</v>
+        <v>9.254461619848518</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>30.58048375883666</v>
+        <v>38.74976507644181</v>
       </c>
       <c r="G18">
-        <v>37.50876290312169</v>
+        <v>43.54199134810737</v>
       </c>
       <c r="H18">
-        <v>12.01903581216123</v>
+        <v>17.83846143964768</v>
       </c>
       <c r="I18">
-        <v>18.49336628832685</v>
+        <v>26.22046244518182</v>
       </c>
       <c r="J18">
-        <v>7.265334674405867</v>
+        <v>11.3559018174775</v>
       </c>
       <c r="K18">
-        <v>13.07387040943341</v>
+        <v>10.6582620698223</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.64274702796752</v>
+        <v>16.57989423634438</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.25267253593265</v>
+        <v>10.24551724873338</v>
       </c>
       <c r="C19">
-        <v>8.995974667213792</v>
+        <v>6.067677562009377</v>
       </c>
       <c r="D19">
-        <v>7.332968909073354</v>
+        <v>9.251134981369532</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30.52856723925248</v>
+        <v>38.74745388772268</v>
       </c>
       <c r="G19">
-        <v>37.43806653282387</v>
+        <v>43.53620360674622</v>
       </c>
       <c r="H19">
-        <v>12.01511164238336</v>
+        <v>17.8408550626921</v>
       </c>
       <c r="I19">
-        <v>18.48857778182338</v>
+        <v>26.22437285261067</v>
       </c>
       <c r="J19">
-        <v>7.259011465801001</v>
+        <v>11.35676382211674</v>
       </c>
       <c r="K19">
-        <v>13.02098628476032</v>
+        <v>10.64518363615382</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.59852130140125</v>
+        <v>16.57344411365453</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.52432426905723</v>
+        <v>10.33490157520756</v>
       </c>
       <c r="C20">
-        <v>9.173776665671168</v>
+        <v>6.129066307646127</v>
       </c>
       <c r="D20">
-        <v>7.439411631094177</v>
+        <v>9.266197940069729</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.76352515084803</v>
+        <v>38.75842425902137</v>
       </c>
       <c r="G20">
-        <v>37.75812205616563</v>
+        <v>43.56300500330759</v>
       </c>
       <c r="H20">
-        <v>12.03340741864361</v>
+        <v>17.83027598024103</v>
       </c>
       <c r="I20">
-        <v>18.5112657521773</v>
+        <v>26.20709479564064</v>
       </c>
       <c r="J20">
-        <v>7.287730193372252</v>
+        <v>11.35299125660584</v>
       </c>
       <c r="K20">
-        <v>13.25752551003526</v>
+        <v>10.70404792037188</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.79694947481769</v>
+        <v>16.60265024335565</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.40659989710795</v>
+        <v>10.63182657646212</v>
       </c>
       <c r="C21">
-        <v>9.752190313442037</v>
+        <v>6.332328725640397</v>
       </c>
       <c r="D21">
-        <v>7.790695049507314</v>
+        <v>9.318400331947396</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>31.57619755441743</v>
+        <v>38.80523827314266</v>
       </c>
       <c r="G21">
-        <v>38.86700897615857</v>
+        <v>43.66624924645002</v>
       </c>
       <c r="H21">
-        <v>12.10634862823106</v>
+        <v>17.7981028072939</v>
       </c>
       <c r="I21">
-        <v>18.60808446623205</v>
+        <v>26.15463714839525</v>
       </c>
       <c r="J21">
-        <v>7.388893444195806</v>
+        <v>11.34217960899073</v>
       </c>
       <c r="K21">
-        <v>14.02712165514328</v>
+        <v>10.90181639560715</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.54073768618825</v>
+        <v>16.70386690305619</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.96081951138235</v>
+        <v>10.82300978487987</v>
       </c>
       <c r="C22">
-        <v>10.11633091295915</v>
+        <v>6.462709099539271</v>
       </c>
       <c r="D22">
-        <v>8.015353924631981</v>
+        <v>9.35366811582125</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>32.12467699281969</v>
+        <v>38.84323096128822</v>
       </c>
       <c r="G22">
-        <v>39.61680962839449</v>
+        <v>43.74351313902044</v>
       </c>
       <c r="H22">
-        <v>12.16297285632649</v>
+        <v>17.77959116663465</v>
       </c>
       <c r="I22">
-        <v>18.68750869136123</v>
+        <v>26.12453182311913</v>
       </c>
       <c r="J22">
-        <v>7.458564757949043</v>
+        <v>11.33650119840843</v>
       </c>
       <c r="K22">
-        <v>14.51155713276616</v>
+        <v>11.03084901546644</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.07571320586104</v>
+        <v>16.77224559607034</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.66705239380301</v>
+        <v>10.72125602374229</v>
       </c>
       <c r="C23">
-        <v>9.923235710499187</v>
+        <v>6.393362172619807</v>
       </c>
       <c r="D23">
-        <v>7.895910712897128</v>
+        <v>9.33474216689117</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>31.83035290079061</v>
+        <v>38.82227835953695</v>
       </c>
       <c r="G23">
-        <v>39.21432575003778</v>
+        <v>43.70138370780462</v>
       </c>
       <c r="H23">
-        <v>12.13190600572957</v>
+        <v>17.78924084776841</v>
       </c>
       <c r="I23">
-        <v>18.64358905701843</v>
+        <v>26.14021666926172</v>
       </c>
       <c r="J23">
-        <v>7.421049796704233</v>
+        <v>11.33940500320282</v>
       </c>
       <c r="K23">
-        <v>14.25468733197487</v>
+        <v>10.96201565437601</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.79207049691668</v>
+        <v>16.73555159297197</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.50952165861457</v>
+        <v>10.3300048711131</v>
       </c>
       <c r="C24">
-        <v>9.164084653980998</v>
+        <v>6.125705782802672</v>
       </c>
       <c r="D24">
-        <v>7.433589635673608</v>
+        <v>9.265364670103375</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.75053496472714</v>
+        <v>38.75778431725684</v>
       </c>
       <c r="G24">
-        <v>37.74042009681342</v>
+        <v>43.5614834527266</v>
       </c>
       <c r="H24">
-        <v>12.03236057095135</v>
+        <v>17.83084425848093</v>
       </c>
       <c r="I24">
-        <v>18.50994439949573</v>
+        <v>26.20802260277993</v>
       </c>
       <c r="J24">
-        <v>7.286135704633656</v>
+        <v>11.35319141359953</v>
       </c>
       <c r="K24">
-        <v>13.24463095914109</v>
+        <v>10.70081484770972</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.78609199571038</v>
+        <v>16.60103458067777</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.16296787288416</v>
+        <v>9.897934728900291</v>
       </c>
       <c r="C25">
-        <v>8.283968208052899</v>
+        <v>5.82796987254564</v>
       </c>
       <c r="D25">
-        <v>6.915133165902142</v>
+        <v>9.19570325997246</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.66014187568556</v>
+        <v>38.72010654187955</v>
       </c>
       <c r="G25">
-        <v>36.25778401336135</v>
+        <v>43.45287583761079</v>
       </c>
       <c r="H25">
-        <v>11.96082059464699</v>
+        <v>17.88650026446518</v>
       </c>
       <c r="I25">
-        <v>18.42995174812884</v>
+        <v>26.29904123433396</v>
       </c>
       <c r="J25">
-        <v>7.155401563101497</v>
+        <v>11.37402808112355</v>
       </c>
       <c r="K25">
-        <v>12.07431278820682</v>
+        <v>10.41952685350155</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.82125101315127</v>
+        <v>16.46597087326617</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_157/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_157/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.573880156280049</v>
+        <v>12.0852958833689</v>
       </c>
       <c r="C2">
-        <v>5.602865536938483</v>
+        <v>7.581492089833261</v>
       </c>
       <c r="D2">
-        <v>9.149089020520927</v>
+        <v>6.518353820268798</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>38.7198539006798</v>
+        <v>28.9209064432901</v>
       </c>
       <c r="G2">
-        <v>43.40943992380495</v>
+        <v>35.25749310436462</v>
       </c>
       <c r="H2">
-        <v>17.9367289136751</v>
+        <v>11.93612450355771</v>
       </c>
       <c r="I2">
-        <v>26.38136426604877</v>
+        <v>18.42060811939475</v>
       </c>
       <c r="J2">
-        <v>11.39450717807848</v>
+        <v>7.071310821107077</v>
       </c>
       <c r="K2">
-        <v>10.21435858003412</v>
+        <v>11.14197017604743</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.37561203550864</v>
+        <v>12.08580308766785</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.35209492403067</v>
+        <v>11.30032979002114</v>
       </c>
       <c r="C3">
-        <v>5.447729625047077</v>
+        <v>7.07063899011214</v>
       </c>
       <c r="D3">
-        <v>9.1205218787664</v>
+        <v>6.241423396150463</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.73683118239558</v>
+        <v>28.45932419181855</v>
       </c>
       <c r="G3">
-        <v>43.40280858259702</v>
+        <v>34.63594753278239</v>
       </c>
       <c r="H3">
-        <v>17.97652631681673</v>
+        <v>11.93544122057109</v>
       </c>
       <c r="I3">
-        <v>26.44666459872368</v>
+        <v>18.44242084220056</v>
       </c>
       <c r="J3">
-        <v>11.411592476549</v>
+        <v>7.021622617110387</v>
       </c>
       <c r="K3">
-        <v>10.07733013588103</v>
+        <v>10.4657229499343</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.32025643064994</v>
+        <v>11.5742447973404</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.21539884434087</v>
+        <v>10.79118824654271</v>
       </c>
       <c r="C4">
-        <v>5.35160740039935</v>
+        <v>6.739571994687291</v>
       </c>
       <c r="D4">
-        <v>9.104505924349846</v>
+        <v>6.067998910215466</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>38.75570600723574</v>
+        <v>28.19518363879083</v>
       </c>
       <c r="G4">
-        <v>43.40997534539664</v>
+        <v>34.28177964539029</v>
       </c>
       <c r="H4">
-        <v>18.00379710047492</v>
+        <v>11.94248378926415</v>
       </c>
       <c r="I4">
-        <v>26.49143600233822</v>
+        <v>18.46879811491812</v>
       </c>
       <c r="J4">
-        <v>11.42366484970966</v>
+        <v>6.994613405888578</v>
       </c>
       <c r="K4">
-        <v>9.994460492699623</v>
+        <v>10.02859528117859</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.28923429338353</v>
+        <v>11.25471848101759</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.159650751304003</v>
+        <v>10.57685045236426</v>
       </c>
       <c r="C5">
-        <v>5.312283677621309</v>
+        <v>6.600250424321779</v>
       </c>
       <c r="D5">
-        <v>9.098367411960114</v>
+        <v>5.996575264638306</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>38.76552101824889</v>
+        <v>28.09235756539399</v>
       </c>
       <c r="G5">
-        <v>43.41571916803468</v>
+        <v>34.14429358339539</v>
       </c>
       <c r="H5">
-        <v>18.01562234630585</v>
+        <v>11.94716338656731</v>
       </c>
       <c r="I5">
-        <v>26.51085462328827</v>
+        <v>18.48268112202356</v>
       </c>
       <c r="J5">
-        <v>11.42898228282968</v>
+        <v>6.984471348541548</v>
       </c>
       <c r="K5">
-        <v>9.961050054186343</v>
+        <v>9.844964378272426</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.27734792884798</v>
+        <v>11.12332851944172</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.150393809554519</v>
+        <v>10.54084493923676</v>
       </c>
       <c r="C6">
-        <v>5.305746723805426</v>
+        <v>6.576848954327195</v>
       </c>
       <c r="D6">
-        <v>9.097371691102895</v>
+        <v>5.984673196159999</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>38.76727897251204</v>
+        <v>28.07557286766654</v>
       </c>
       <c r="G6">
-        <v>43.41684333049674</v>
+        <v>34.12187491312795</v>
       </c>
       <c r="H6">
-        <v>18.01762891156089</v>
+        <v>11.94804779780734</v>
       </c>
       <c r="I6">
-        <v>26.51414990868195</v>
+        <v>18.48517189369667</v>
       </c>
       <c r="J6">
-        <v>11.42988926801095</v>
+        <v>6.982839003067188</v>
       </c>
       <c r="K6">
-        <v>9.955525188924922</v>
+        <v>9.814141134807601</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.27542009337536</v>
+        <v>11.10144586542363</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.214647064194988</v>
+        <v>10.78832541248265</v>
       </c>
       <c r="C7">
-        <v>5.351077598402024</v>
+        <v>6.737710950101023</v>
       </c>
       <c r="D7">
-        <v>9.104421560674067</v>
+        <v>6.067038568020084</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>38.75582978141654</v>
+        <v>28.19377745442007</v>
       </c>
       <c r="G7">
-        <v>43.41004138216721</v>
+        <v>34.27989786710312</v>
       </c>
       <c r="H7">
-        <v>18.00395369728646</v>
+        <v>11.94253966004117</v>
       </c>
       <c r="I7">
-        <v>26.4916931384095</v>
+        <v>18.46897282748722</v>
       </c>
       <c r="J7">
-        <v>11.42373495158363</v>
+        <v>6.994473147801409</v>
       </c>
       <c r="K7">
-        <v>9.994008397774449</v>
+        <v>10.02614100692792</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.28907091916386</v>
+        <v>11.252951028718</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.497567709837671</v>
+        <v>11.8202605628097</v>
       </c>
       <c r="C8">
-        <v>5.549592891483698</v>
+        <v>7.408940666133559</v>
       </c>
       <c r="D8">
-        <v>9.138925671380123</v>
+        <v>6.423627571707109</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.72395302390976</v>
+        <v>28.75773671083297</v>
       </c>
       <c r="G8">
-        <v>43.4048198420973</v>
+        <v>35.03745085837051</v>
       </c>
       <c r="H8">
-        <v>17.94986223954174</v>
+        <v>11.93429973141031</v>
       </c>
       <c r="I8">
-        <v>26.4029079347635</v>
+        <v>18.42535476663859</v>
       </c>
       <c r="J8">
-        <v>11.40006990292106</v>
+        <v>7.053442884739345</v>
       </c>
       <c r="K8">
-        <v>10.16687317683588</v>
+        <v>10.91335037083372</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.35591565677894</v>
+        <v>11.91064765508173</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.04459017648775</v>
+        <v>13.62982643234911</v>
       </c>
       <c r="C9">
-        <v>5.929311161367052</v>
+        <v>8.588781670215997</v>
       </c>
       <c r="D9">
-        <v>9.218457077644461</v>
+        <v>7.09226528271162</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>38.72853057930801</v>
+        <v>30.01753629498151</v>
       </c>
       <c r="G9">
-        <v>43.48379249461903</v>
+        <v>36.74295857833695</v>
       </c>
       <c r="H9">
-        <v>17.86631407843202</v>
+        <v>11.98038458038028</v>
       </c>
       <c r="I9">
-        <v>26.265998843166</v>
+        <v>18.44882674384337</v>
       </c>
       <c r="J9">
-        <v>11.36621155832952</v>
+        <v>7.197512010223568</v>
       </c>
       <c r="K9">
-        <v>10.51408302654227</v>
+        <v>12.47944767064256</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.51008527837675</v>
+        <v>13.1504271802057</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.43710828600512</v>
+        <v>14.83131422874127</v>
       </c>
       <c r="C10">
-        <v>6.199144613771653</v>
+        <v>9.374868716866622</v>
       </c>
       <c r="D10">
-        <v>9.283799439800044</v>
+        <v>7.560703230963616</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>38.77278485172452</v>
+        <v>31.03775555305685</v>
       </c>
       <c r="G10">
-        <v>43.59613793942766</v>
+        <v>38.13199995678722</v>
       </c>
       <c r="H10">
-        <v>17.81870284171613</v>
+        <v>12.05642433840097</v>
       </c>
       <c r="I10">
-        <v>26.18820837631289</v>
+        <v>18.54090170742168</v>
       </c>
       <c r="J10">
-        <v>11.34898035189276</v>
+        <v>7.321564789353402</v>
       </c>
       <c r="K10">
-        <v>10.77174570847452</v>
+        <v>13.52507787834265</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.6367785521331</v>
+        <v>14.0232571034969</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.61274683983396</v>
+        <v>15.35074128881809</v>
       </c>
       <c r="C11">
-        <v>6.319296562676098</v>
+        <v>9.715524748437305</v>
       </c>
       <c r="D11">
-        <v>9.314949859705253</v>
+        <v>7.768215830495617</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>38.80177314143726</v>
+        <v>31.52252699125721</v>
       </c>
       <c r="G11">
-        <v>43.65898762745465</v>
+        <v>38.79369488708196</v>
       </c>
       <c r="H11">
-        <v>17.80004103216369</v>
+        <v>12.10110878278459</v>
       </c>
       <c r="I11">
-        <v>26.157792959669</v>
+        <v>18.60088634332314</v>
       </c>
       <c r="J11">
-        <v>11.34279928045811</v>
+        <v>7.382132520821649</v>
       </c>
       <c r="K11">
-        <v>10.88900971501156</v>
+        <v>13.97833791246635</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.6971768052423</v>
+        <v>14.48685220156152</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.6787690346125</v>
+        <v>15.5435894121742</v>
       </c>
       <c r="C12">
-        <v>6.364376035256083</v>
+        <v>9.842137123016556</v>
       </c>
       <c r="D12">
-        <v>9.326943825729646</v>
+        <v>7.845953424017457</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>38.81401989369622</v>
+        <v>31.70907517416825</v>
       </c>
       <c r="G12">
-        <v>43.68446759477232</v>
+        <v>39.04856492036365</v>
       </c>
       <c r="H12">
-        <v>17.79340572009519</v>
+        <v>12.1195593789442</v>
       </c>
       <c r="I12">
-        <v>26.14699209515747</v>
+        <v>18.62635887629787</v>
       </c>
       <c r="J12">
-        <v>11.34069673499098</v>
+        <v>7.405676984738299</v>
       </c>
       <c r="K12">
-        <v>10.93338042058788</v>
+        <v>14.14679312941402</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.72043170937325</v>
+        <v>14.67291394034812</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.66457272749437</v>
+        <v>15.50222632837929</v>
       </c>
       <c r="C13">
-        <v>6.354686708636619</v>
+        <v>9.814974213328975</v>
       </c>
       <c r="D13">
-        <v>9.324352020743934</v>
+        <v>7.82924926900577</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>38.81132595135239</v>
+        <v>31.66876622506722</v>
       </c>
       <c r="G13">
-        <v>43.67890546017578</v>
+        <v>38.99348254487315</v>
       </c>
       <c r="H13">
-        <v>17.79481555331845</v>
+        <v>12.11551642388374</v>
       </c>
       <c r="I13">
-        <v>26.14928634705794</v>
+        <v>18.62074776614601</v>
       </c>
       <c r="J13">
-        <v>11.34113897118921</v>
+        <v>7.400578959406152</v>
       </c>
       <c r="K13">
-        <v>10.92382659330377</v>
+        <v>14.1106542590317</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.71540652997497</v>
+        <v>14.63300032481973</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.61818868609836</v>
+        <v>15.36668380461572</v>
       </c>
       <c r="C14">
-        <v>6.323013933534656</v>
+        <v>9.725988764136195</v>
       </c>
       <c r="D14">
-        <v>9.315932684144999</v>
+        <v>7.774628438419559</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>38.80275527350195</v>
+        <v>31.53781474538654</v>
       </c>
       <c r="G14">
-        <v>43.66105026303111</v>
+        <v>38.81457690881983</v>
       </c>
       <c r="H14">
-        <v>17.79948648989383</v>
+        <v>12.10259561644619</v>
       </c>
       <c r="I14">
-        <v>26.15688999035032</v>
+        <v>18.60292581898441</v>
       </c>
       <c r="J14">
-        <v>11.34262153270404</v>
+        <v>7.384057255274796</v>
       </c>
       <c r="K14">
-        <v>10.8926610506983</v>
+        <v>13.99226041227457</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.69908239965512</v>
+        <v>14.50223095565744</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.58971158372029</v>
+        <v>15.28316071138707</v>
       </c>
       <c r="C15">
-        <v>6.303557522747758</v>
+        <v>9.671173305446406</v>
       </c>
       <c r="D15">
-        <v>9.310801165742955</v>
+        <v>7.741060801375629</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>38.79767067397648</v>
+        <v>31.45799090473463</v>
       </c>
       <c r="G15">
-        <v>43.65033195692097</v>
+        <v>38.70555260305487</v>
       </c>
       <c r="H15">
-        <v>17.80240378466466</v>
+        <v>12.09488278946225</v>
       </c>
       <c r="I15">
-        <v>26.16164084154904</v>
+        <v>18.59237313613162</v>
       </c>
       <c r="J15">
-        <v>11.34356064260191</v>
+        <v>7.374016939199529</v>
       </c>
       <c r="K15">
-        <v>10.87356551644572</v>
+        <v>13.91932725181028</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.68913289719018</v>
+        <v>14.42166685937593</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.42556517233286</v>
+        <v>14.7968269627204</v>
       </c>
       <c r="C16">
-        <v>6.191236115280144</v>
+        <v>9.352269315772357</v>
       </c>
       <c r="D16">
-        <v>9.281791781523841</v>
+        <v>7.547025805340121</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>38.77106829712752</v>
+        <v>31.00649071804412</v>
       </c>
       <c r="G16">
-        <v>43.59226618852127</v>
+        <v>38.08935757500856</v>
       </c>
       <c r="H16">
-        <v>17.81998278869134</v>
+        <v>12.05371385601146</v>
       </c>
       <c r="I16">
-        <v>26.19029630279954</v>
+        <v>18.53735896266331</v>
       </c>
       <c r="J16">
-        <v>11.34941763204315</v>
+        <v>7.317690961522172</v>
       </c>
       <c r="K16">
-        <v>10.76407965095295</v>
+        <v>13.4950084803259</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.63288582080639</v>
+        <v>13.99772712481042</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.32406851748412</v>
+        <v>14.49156419707429</v>
       </c>
       <c r="C17">
-        <v>6.121631378945621</v>
+        <v>9.152327532113286</v>
       </c>
       <c r="D17">
-        <v>9.264355727813308</v>
+        <v>7.426530142424165</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>38.75701449333936</v>
+        <v>30.73480507120462</v>
       </c>
       <c r="G17">
-        <v>43.55964704864836</v>
+        <v>37.71898575272804</v>
       </c>
       <c r="H17">
-        <v>17.83153491884167</v>
+        <v>12.03109835530319</v>
       </c>
       <c r="I17">
-        <v>26.20915026950222</v>
+        <v>18.50835464628822</v>
       </c>
       <c r="J17">
-        <v>11.35343506613738</v>
+        <v>7.284205957268472</v>
       </c>
       <c r="K17">
-        <v>10.69689662418419</v>
+        <v>13.22898902399977</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.5990782999351</v>
+        <v>13.77292735316757</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.26541926504374</v>
+        <v>14.31342744922856</v>
       </c>
       <c r="C18">
-        <v>6.081354648664897</v>
+        <v>9.035728808136367</v>
       </c>
       <c r="D18">
-        <v>9.254461619848518</v>
+        <v>7.356700559398904</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>38.74976507644181</v>
+        <v>30.58048375883686</v>
       </c>
       <c r="G18">
-        <v>43.54199134810737</v>
+        <v>37.50876290312208</v>
       </c>
       <c r="H18">
-        <v>17.83846143964768</v>
+        <v>12.01903581216136</v>
       </c>
       <c r="I18">
-        <v>26.22046244518182</v>
+        <v>18.49336628832705</v>
       </c>
       <c r="J18">
-        <v>11.3559018174775</v>
+        <v>7.265334674405861</v>
       </c>
       <c r="K18">
-        <v>10.6582620698223</v>
+        <v>13.07387040943332</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.57989423634438</v>
+        <v>13.64274702796752</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.24551724873338</v>
+        <v>14.25267253593265</v>
       </c>
       <c r="C19">
-        <v>6.067677562009377</v>
+        <v>8.995974667213682</v>
       </c>
       <c r="D19">
-        <v>9.251134981369532</v>
+        <v>7.332968909073317</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>38.74745388772268</v>
+        <v>30.52856723925262</v>
       </c>
       <c r="G19">
-        <v>43.53620360674622</v>
+        <v>37.43806653282401</v>
       </c>
       <c r="H19">
-        <v>17.8408550626921</v>
+        <v>12.01511164238346</v>
       </c>
       <c r="I19">
-        <v>26.22437285261067</v>
+        <v>18.4885777818235</v>
       </c>
       <c r="J19">
-        <v>11.35676382211674</v>
+        <v>7.259011465801081</v>
       </c>
       <c r="K19">
-        <v>10.64518363615382</v>
+        <v>13.02098628476027</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.57344411365453</v>
+        <v>13.59852130140126</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.33490157520756</v>
+        <v>14.52432426905723</v>
       </c>
       <c r="C20">
-        <v>6.129066307646127</v>
+        <v>9.17377666567117</v>
       </c>
       <c r="D20">
-        <v>9.266197940069729</v>
+        <v>7.439411631094141</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>38.75842425902137</v>
+        <v>30.76352515084799</v>
       </c>
       <c r="G20">
-        <v>43.56300500330759</v>
+        <v>37.7581220561656</v>
       </c>
       <c r="H20">
-        <v>17.83027598024103</v>
+        <v>12.0334074186436</v>
       </c>
       <c r="I20">
-        <v>26.20709479564064</v>
+        <v>18.51126575217728</v>
       </c>
       <c r="J20">
-        <v>11.35299125660584</v>
+        <v>7.287730193372226</v>
       </c>
       <c r="K20">
-        <v>10.70404792037188</v>
+        <v>13.25752551003526</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.60265024335565</v>
+        <v>13.79694947481769</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.63182657646212</v>
+        <v>15.40659989710796</v>
       </c>
       <c r="C21">
-        <v>6.332328725640397</v>
+        <v>9.752190313442037</v>
       </c>
       <c r="D21">
-        <v>9.318400331947396</v>
+        <v>7.790695049507298</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>38.80523827314266</v>
+        <v>31.57619755441751</v>
       </c>
       <c r="G21">
-        <v>43.66624924645002</v>
+        <v>38.86700897615867</v>
       </c>
       <c r="H21">
-        <v>17.7981028072939</v>
+        <v>12.10634862823112</v>
       </c>
       <c r="I21">
-        <v>26.15463714839525</v>
+        <v>18.60808446623208</v>
       </c>
       <c r="J21">
-        <v>11.34217960899073</v>
+        <v>7.388893444195718</v>
       </c>
       <c r="K21">
-        <v>10.90181639560715</v>
+        <v>14.02712165514328</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.70386690305619</v>
+        <v>14.54073768618827</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.82300978487987</v>
+        <v>15.96081951138236</v>
       </c>
       <c r="C22">
-        <v>6.462709099539271</v>
+        <v>10.11633091295899</v>
       </c>
       <c r="D22">
-        <v>9.35366811582125</v>
+        <v>8.015353924631947</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>38.84323096128822</v>
+        <v>32.12467699281979</v>
       </c>
       <c r="G22">
-        <v>43.74351313902044</v>
+        <v>39.61680962839473</v>
       </c>
       <c r="H22">
-        <v>17.77959116663465</v>
+        <v>12.16297285632654</v>
       </c>
       <c r="I22">
-        <v>26.12453182311913</v>
+        <v>18.68750869136139</v>
       </c>
       <c r="J22">
-        <v>11.33650119840843</v>
+        <v>7.458564757949085</v>
       </c>
       <c r="K22">
-        <v>11.03084901546644</v>
+        <v>14.51155713276614</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.77224559607034</v>
+        <v>15.07571320586101</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.72125602374229</v>
+        <v>15.66705239380304</v>
       </c>
       <c r="C23">
-        <v>6.393362172619807</v>
+        <v>9.923235710499128</v>
       </c>
       <c r="D23">
-        <v>9.33474216689117</v>
+        <v>7.895910712897083</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>38.82227835953695</v>
+        <v>31.83035290079052</v>
       </c>
       <c r="G23">
-        <v>43.70138370780462</v>
+        <v>39.21432575003771</v>
       </c>
       <c r="H23">
-        <v>17.78924084776841</v>
+        <v>12.13190600572948</v>
       </c>
       <c r="I23">
-        <v>26.14021666926172</v>
+        <v>18.6435890570183</v>
       </c>
       <c r="J23">
-        <v>11.33940500320282</v>
+        <v>7.421049796704208</v>
       </c>
       <c r="K23">
-        <v>10.96201565437601</v>
+        <v>14.2546873319749</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.73555159297197</v>
+        <v>14.79207049691673</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.3300048711131</v>
+        <v>14.50952165861455</v>
       </c>
       <c r="C24">
-        <v>6.125705782802672</v>
+        <v>9.164084653980956</v>
       </c>
       <c r="D24">
-        <v>9.265364670103375</v>
+        <v>7.433589635673628</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>38.75778431725684</v>
+        <v>30.75053496472728</v>
       </c>
       <c r="G24">
-        <v>43.5614834527266</v>
+        <v>37.74042009681365</v>
       </c>
       <c r="H24">
-        <v>17.83084425848093</v>
+        <v>12.0323605709514</v>
       </c>
       <c r="I24">
-        <v>26.20802260277993</v>
+        <v>18.50994439949586</v>
       </c>
       <c r="J24">
-        <v>11.35319141359953</v>
+        <v>7.286135704633728</v>
       </c>
       <c r="K24">
-        <v>10.70081484770972</v>
+        <v>13.24463095914107</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.60103458067777</v>
+        <v>13.78609199571041</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.897934728900291</v>
+        <v>13.16296787288427</v>
       </c>
       <c r="C25">
-        <v>5.82796987254564</v>
+        <v>8.283968208052872</v>
       </c>
       <c r="D25">
-        <v>9.19570325997246</v>
+        <v>6.915133165902161</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.72010654187955</v>
+        <v>29.66014187568532</v>
       </c>
       <c r="G25">
-        <v>43.45287583761079</v>
+        <v>36.2577840133611</v>
       </c>
       <c r="H25">
-        <v>17.88650026446518</v>
+        <v>11.96082059464685</v>
       </c>
       <c r="I25">
-        <v>26.29904123433396</v>
+        <v>18.42995174812856</v>
       </c>
       <c r="J25">
-        <v>11.37402808112355</v>
+        <v>7.155401563101509</v>
       </c>
       <c r="K25">
-        <v>10.41952685350155</v>
+        <v>12.07431278820689</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.46597087326617</v>
+        <v>12.82125101315127</v>
       </c>
       <c r="N25">
         <v>0</v>
